--- a/Bill of materials.xlsx
+++ b/Bill of materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\IMPORTANT\GitHub Portfolio\TTL_Timer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57999010-67C0-4DF1-BD34-04186A29A150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8C0272-46D2-478A-A798-03DD7047D7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB632350-3692-42E7-900E-72A5CFDEE644}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>74STD, 74173N</t>
   </si>
@@ -192,9 +192,6 @@
     <t>Generic\7SEG8DIP14B</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -208,12 +205,21 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-;_-@_-"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,11 +279,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -601,358 +610,405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EBBE33-0626-44EE-A7D9-02D4C329B077}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.77734375" customWidth="1"/>
-    <col min="4" max="4" width="33.21875" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4">
+        <v>7.1020000000000003</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3.8159999999999998</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="4">
+        <v>11.936</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.1594000000000002</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.1504000000000001</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>59</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.69620000000000004</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.0640000000000001</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.5756</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.40560000000000002</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="4">
+        <v>6.08E-2</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.10980000000000001</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2.5980000000000003</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>59</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>3</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
-        <v>8</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="6">
+        <v>3.9312</v>
+      </c>
+      <c r="F20" s="6">
+        <f>SUM(E2:E20)</f>
+        <v>37.7712</v>
+      </c>
+      <c r="G20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bill of materials.xlsx
+++ b/Bill of materials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\IMPORTANT\GitHub Portfolio\TTL_Timer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8C0272-46D2-478A-A798-03DD7047D7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361734A4-470E-445C-BD54-139BA46FCE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB632350-3692-42E7-900E-72A5CFDEE644}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>74STD, 74173N</t>
   </si>
@@ -123,9 +123,6 @@
     <t>OVERFLOW, POWER, START__STOP</t>
   </si>
   <si>
-    <t>R10, R12, R13, R14, R16, R17</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -211,6 +208,21 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>RESISTOR, 500Ω</t>
+  </si>
+  <si>
+    <t>RESISTOR, 1kΩ</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R12, R13, R17</t>
+  </si>
+  <si>
+    <t>R10, R14, R16</t>
   </si>
 </sst>
 </file>
@@ -218,7 +230,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -279,21 +291,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -610,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EBBE33-0626-44EE-A7D9-02D4C329B077}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,388 +637,404 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7.1020000000000003</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.8159999999999998</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1">
+        <v>11.936</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.1594000000000002</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.1504000000000001</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>59</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.69620000000000004</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.0640000000000001</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.5756</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.40560000000000002</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6.08E-2</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.10980000000000001</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="4">
-        <v>7.1020000000000003</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3.8159999999999998</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="E21" s="1">
+        <v>2.5980000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="4">
-        <v>11.936</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3.1594000000000002</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1.1504000000000001</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>59</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.69620000000000004</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2.0640000000000001</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.5756</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="4">
-        <v>4.9200000000000001E-2</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.11699999999999999</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.40560000000000002</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="4">
-        <v>6.08E-2</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.10980000000000001</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2.5980000000000003</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
-        <v>8</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="E22" s="4">
         <v>3.9312</v>
       </c>
-      <c r="F20" s="6">
-        <f>SUM(E2:E20)</f>
+      <c r="F22" s="4">
+        <f>SUM(E2:E22)</f>
         <v>37.7712</v>
       </c>
-      <c r="G20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
